--- a/week-1/Solutions/1-4-B-more-complex-calculations/lookup-pulse-check-solutions.xlsx
+++ b/week-1/Solutions/1-4-B-more-complex-calculations/lookup-pulse-check-solutions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\2-4-more-complex-calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-1\Solutions\1-4-B-more-complex-calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
